--- a/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T08:44:34+00:00</t>
+    <t>2024-02-13T12:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
